--- a/src/test/resources/excel/inspection_record.xlsx
+++ b/src/test/resources/excel/inspection_record.xlsx
@@ -57,8 +57,7 @@
     <t>巡查路段</t>
   </si>
   <si>
-    <t xml:space="preserve">巡查、处理情况：
-</t>
+    <t>巡查、处理情况：</t>
   </si>
   <si>
     <t>巡查车辆、装备、案件等交接情况：</t>
@@ -1503,8 +1502,8 @@
   <sheetPr/>
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1613,12 +1612,12 @@
       <c r="D11" s="26"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="53" customHeight="1" spans="1:4">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:4">
       <c r="A13" s="27"/>
